--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="395">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,7 +244,7 @@
     <t>Wuhan Zall</t>
   </si>
   <si>
-    <t>Hangzhou</t>
+    <t>Zhejiang FC</t>
   </si>
   <si>
     <t>Shanghai Shenhua</t>
@@ -802,7 +802,7 @@
     <t>['9', '72']</t>
   </si>
   <si>
-    <t>['-1', '-1', '-1', '-1']</t>
+    <t>['13', '22', '35', '84']</t>
   </si>
   <si>
     <t>['3', '28', '43', '4501']</t>
@@ -1189,6 +1189,9 @@
     <t>['3', '45+1', '58', '62']</t>
   </si>
   <si>
+    <t>['-1', '-1', '-1', '-1']</t>
+  </si>
+  <si>
     <t>['15', '45+2', '89']</t>
   </si>
   <si>
@@ -15556,13 +15559,13 @@
         <v>84</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R74">
         <v>5</v>
       </c>
       <c r="S74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T74">
         <v>2.75</v>
@@ -39049,13 +39052,13 @@
         <v>152</v>
       </c>
       <c r="Q197">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S197">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T197">
         <v>2.88</v>
@@ -56809,7 +56812,7 @@
         <v>202</v>
       </c>
       <c r="P290" t="s">
-        <v>262</v>
+        <v>391</v>
       </c>
       <c r="Q290">
         <v>3</v>
@@ -57191,7 +57194,7 @@
         <v>84</v>
       </c>
       <c r="P292" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q292">
         <v>2</v>
@@ -58528,7 +58531,7 @@
         <v>84</v>
       </c>
       <c r="P299" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q299">
         <v>4</v>
@@ -59101,7 +59104,7 @@
         <v>236</v>
       </c>
       <c r="P302" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q302">
         <v>2</v>
@@ -59271,13 +59274,13 @@
         <v>75</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J303">
         <v>0</v>
       </c>
       <c r="K303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L303">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2022.xlsx
@@ -4974,7 +4974,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['36', '78', '88']</t>
+          <t>['36', '78', '87']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -9233,13 +9233,13 @@
         <v>12</v>
       </c>
       <c r="BA40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BB40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC40" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD40" t="n">
         <v>2.18</v>
@@ -9433,22 +9433,22 @@
         <v>3.83</v>
       </c>
       <c r="AU41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW41" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AX41" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AY41" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ41" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA41" t="n">
         <v>4</v>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['6', '24', '31', '50']</t>
+          <t>['6', '24', '32', '50']</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['69', '86', '90+4']</t>
+          <t>['68', '85', '90+4']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -10953,10 +10953,10 @@
         <v>1.29</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.15</v>
+        <v>3.79</v>
       </c>
       <c r="AU48" t="n">
         <v>4</v>
@@ -12697,10 +12697,10 @@
         <v>1.58</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="AU56" t="n">
         <v>8</v>
@@ -13784,13 +13784,13 @@
         <v>1.65</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AS61" t="n">
         <v>1.51</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="AU61" t="n">
         <v>6</v>
@@ -15749,10 +15749,10 @@
         <v>1.3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="AU70" t="n">
         <v>6</v>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['18', '79']</t>
+          <t>['18', '78']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -16645,13 +16645,13 @@
         <v>19</v>
       </c>
       <c r="BA74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB74" t="n">
         <v>5</v>
       </c>
       <c r="BC74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD74" t="n">
         <v>1.78</v>
@@ -16836,13 +16836,13 @@
         <v>1.88</v>
       </c>
       <c r="AR75" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AS75" t="n">
         <v>2.76</v>
       </c>
       <c r="AT75" t="n">
-        <v>4.07</v>
+        <v>4.15</v>
       </c>
       <c r="AU75" t="n">
         <v>2</v>
@@ -17299,13 +17299,13 @@
         <v>12</v>
       </c>
       <c r="BA77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB77" t="n">
         <v>3</v>
       </c>
       <c r="BC77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD77" t="n">
         <v>2.61</v>
@@ -19243,22 +19243,22 @@
         <v>2.3</v>
       </c>
       <c r="AU86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV86" t="n">
         <v>3</v>
       </c>
       <c r="AW86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX86" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY86" t="n">
         <v>16</v>
       </c>
       <c r="AZ86" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA86" t="n">
         <v>5</v>
@@ -20545,10 +20545,10 @@
         <v>1.59</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AU92" t="n">
         <v>0</v>
@@ -21329,7 +21329,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>['52', '74', '90']</t>
+          <t>['52', '74', '89']</t>
         </is>
       </c>
       <c r="Q96" t="n">
@@ -22068,13 +22068,13 @@
         <v>1.76</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS99" t="n">
         <v>1.47</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AU99" t="n">
         <v>4</v>
@@ -23376,13 +23376,13 @@
         <v>1.12</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS105" t="n">
         <v>1.52</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -23815,10 +23815,10 @@
         <v>1.29</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="AU107" t="n">
         <v>6</v>
@@ -24158,7 +24158,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['56', '72']</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -24484,13 +24484,13 @@
         <v>7</v>
       </c>
       <c r="AX110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY110" t="n">
         <v>11</v>
       </c>
       <c r="AZ110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA110" t="n">
         <v>5</v>
@@ -24684,13 +24684,13 @@
         <v>2.41</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AS111" t="n">
         <v>1.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU111" t="n">
         <v>8</v>
@@ -24932,10 +24932,10 @@
         <v>3</v>
       </c>
       <c r="BB112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD112" t="n">
         <v>2.68</v>
@@ -25559,28 +25559,28 @@
         <v>0.58</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AU115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX115" t="n">
         <v>7</v>
       </c>
-      <c r="AV115" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW115" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX115" t="n">
-        <v>8</v>
-      </c>
       <c r="AY115" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA115" t="n">
         <v>3</v>
@@ -25774,13 +25774,13 @@
         <v>1.65</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AS116" t="n">
         <v>1.54</v>
       </c>
       <c r="AT116" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="AU116" t="n">
         <v>2</v>
@@ -25995,10 +25995,10 @@
         <v>1.21</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AU117" t="n">
         <v>4</v>
@@ -26213,10 +26213,10 @@
         <v>1.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="AU118" t="n">
         <v>5</v>
@@ -26437,22 +26437,22 @@
         <v>2.95</v>
       </c>
       <c r="AU119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV119" t="n">
         <v>3</v>
       </c>
       <c r="AW119" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ119" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA119" t="n">
         <v>3</v>
@@ -26649,10 +26649,10 @@
         <v>1.1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="AU120" t="n">
         <v>9</v>
@@ -27954,13 +27954,13 @@
         <v>1.41</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AU126" t="n">
         <v>4</v>
@@ -28393,10 +28393,10 @@
         <v>1.02</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="AU128" t="n">
         <v>2</v>
@@ -28611,10 +28611,10 @@
         <v>0.97</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="AU129" t="n">
         <v>4</v>
@@ -28826,31 +28826,31 @@
         <v>0.35</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AS130" t="n">
         <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="AU130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW130" t="n">
         <v>8</v>
       </c>
-      <c r="AV130" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW130" t="n">
-        <v>12</v>
-      </c>
       <c r="AX130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY130" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ130" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA130" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q133" t="n">
@@ -29483,10 +29483,10 @@
         <v>2.39</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT133" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="AU133" t="n">
         <v>9</v>
@@ -30137,10 +30137,10 @@
         <v>1.58</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU136" t="n">
         <v>7</v>
@@ -30352,13 +30352,13 @@
         <v>1.82</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AU137" t="n">
         <v>2</v>
@@ -30485,7 +30485,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="Q138" t="n">
@@ -30573,10 +30573,10 @@
         <v>1.54</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU138" t="n">
         <v>10</v>
@@ -30791,10 +30791,10 @@
         <v>0.97</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="AU139" t="n">
         <v>5</v>
@@ -31227,10 +31227,10 @@
         <v>1.11</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="AU141" t="n">
         <v>2</v>
@@ -31352,7 +31352,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -31881,10 +31881,10 @@
         <v>0.97</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AU144" t="n">
         <v>7</v>
@@ -32644,10 +32644,10 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -32665,7 +32665,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="Q148" t="n">
@@ -32750,13 +32750,13 @@
         <v>1.41</v>
       </c>
       <c r="AR148" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AU148" t="n">
         <v>2</v>
@@ -32968,13 +32968,13 @@
         <v>2.41</v>
       </c>
       <c r="AR149" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS149" t="n">
         <v>1.76</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU149" t="n">
         <v>6</v>
@@ -33186,13 +33186,13 @@
         <v>1.12</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS150" t="n">
         <v>1.61</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU150" t="n">
         <v>4</v>
@@ -33407,10 +33407,10 @@
         <v>1.17</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU151" t="n">
         <v>2</v>
@@ -33622,13 +33622,13 @@
         <v>1.76</v>
       </c>
       <c r="AR152" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS152" t="n">
         <v>1.42</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="AU152" t="n">
         <v>6</v>
@@ -34058,13 +34058,13 @@
         <v>0.71</v>
       </c>
       <c r="AR154" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS154" t="n">
         <v>1.27</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU154" t="n">
         <v>5</v>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>['39', '60', '76', '9002']</t>
+          <t>['39', '61', '76', '90+2']</t>
         </is>
       </c>
       <c r="Q157" t="n">
@@ -34930,13 +34930,13 @@
         <v>0.71</v>
       </c>
       <c r="AR158" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AS158" t="n">
         <v>0.89</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AU158" t="n">
         <v>10</v>
@@ -35151,10 +35151,10 @@
         <v>1.4</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="AU159" t="n">
         <v>3</v>
@@ -35366,13 +35366,13 @@
         <v>1.82</v>
       </c>
       <c r="AR160" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT160" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="AU160" t="n">
         <v>6</v>
@@ -35717,7 +35717,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>['88', '90+1']</t>
+          <t>['88', '90']</t>
         </is>
       </c>
       <c r="Q162" t="n">
@@ -36020,13 +36020,13 @@
         <v>0.82</v>
       </c>
       <c r="AR163" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="AU163" t="n">
         <v>5</v>
@@ -36238,13 +36238,13 @@
         <v>1.59</v>
       </c>
       <c r="AR164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AS164" t="n">
         <v>1.02</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU164" t="n">
         <v>3</v>
@@ -36459,10 +36459,10 @@
         <v>1.57</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT165" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="AU165" t="n">
         <v>3</v>
@@ -36674,13 +36674,13 @@
         <v>1.59</v>
       </c>
       <c r="AR166" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AU166" t="n">
         <v>5</v>
@@ -37113,10 +37113,10 @@
         <v>1.01</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="AU168" t="n">
         <v>4</v>
@@ -37328,13 +37328,13 @@
         <v>0.35</v>
       </c>
       <c r="AR169" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="AU169" t="n">
         <v>3</v>
@@ -37549,10 +37549,10 @@
         <v>1.16</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="AU170" t="n">
         <v>3</v>
@@ -37764,13 +37764,13 @@
         <v>1.76</v>
       </c>
       <c r="AR171" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS171" t="n">
         <v>1.51</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AU171" t="n">
         <v>5</v>
@@ -38200,13 +38200,13 @@
         <v>0</v>
       </c>
       <c r="AR173" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AS173" t="n">
         <v>0.71</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AU173" t="n">
         <v>7</v>
@@ -38854,13 +38854,13 @@
         <v>1.76</v>
       </c>
       <c r="AR176" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS176" t="n">
         <v>1.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU176" t="n">
         <v>4</v>
@@ -39729,10 +39729,10 @@
         <v>1.58</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT180" t="n">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU180" t="n">
         <v>4</v>
@@ -40380,13 +40380,13 @@
         <v>1.59</v>
       </c>
       <c r="AR183" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS183" t="n">
         <v>1.1</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="AU183" t="n">
         <v>5</v>
@@ -40598,13 +40598,13 @@
         <v>1.76</v>
       </c>
       <c r="AR184" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AS184" t="n">
         <v>1.52</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AU184" t="n">
         <v>3</v>
@@ -40816,13 +40816,13 @@
         <v>1.12</v>
       </c>
       <c r="AR185" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AS185" t="n">
         <v>1.49</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="AU185" t="n">
         <v>14</v>
@@ -41037,10 +41037,10 @@
         <v>1.73</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT186" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU186" t="n">
         <v>8</v>
@@ -41143,13 +41143,13 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L187" t="n">
         <v>2</v>
@@ -41162,12 +41162,12 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['10', '17']</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="Q187" t="n">
@@ -41688,13 +41688,13 @@
         <v>0.71</v>
       </c>
       <c r="AR189" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AS189" t="n">
         <v>0.8</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="AU189" t="n">
         <v>8</v>
@@ -42124,40 +42124,40 @@
         <v>0.71</v>
       </c>
       <c r="AR191" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AS191" t="n">
         <v>0.8</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU191" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV191" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW191" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX191" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY191" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ191" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA191" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB191" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC191" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD191" t="n">
         <v>2.8</v>
@@ -42342,13 +42342,13 @@
         <v>1.12</v>
       </c>
       <c r="AR192" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS192" t="n">
         <v>1.45</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU192" t="n">
         <v>3</v>
@@ -42781,10 +42781,10 @@
         <v>1.17</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU194" t="n">
         <v>2</v>
@@ -42999,10 +42999,10 @@
         <v>2.45</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AT195" t="n">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="AU195" t="n">
         <v>4</v>
@@ -43217,10 +43217,10 @@
         <v>1.83</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT196" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="AU196" t="n">
         <v>8</v>
@@ -43323,13 +43323,13 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197" t="n">
         <v>1</v>
@@ -43342,12 +43342,12 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['55', '60']</t>
         </is>
       </c>
       <c r="Q197" t="n">
@@ -43778,7 +43778,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>['43', '90+1']</t>
+          <t>['43', '90']</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -44086,13 +44086,13 @@
         <v>1.47</v>
       </c>
       <c r="AR200" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AS200" t="n">
         <v>1.23</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="AU200" t="n">
         <v>4</v>
@@ -44307,10 +44307,10 @@
         <v>1.72</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT201" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AU201" t="n">
         <v>7</v>
@@ -44525,10 +44525,10 @@
         <v>1.64</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT202" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AU202" t="n">
         <v>3</v>
@@ -45176,13 +45176,13 @@
         <v>1.29</v>
       </c>
       <c r="AR205" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS205" t="n">
         <v>1.48</v>
       </c>
       <c r="AT205" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AU205" t="n">
         <v>6</v>
@@ -45833,10 +45833,10 @@
         <v>1.86</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AT208" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="AU208" t="n">
         <v>7</v>
@@ -46487,10 +46487,10 @@
         <v>1.55</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AT211" t="n">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU211" t="n">
         <v>14</v>
@@ -47138,13 +47138,13 @@
         <v>1.59</v>
       </c>
       <c r="AR214" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS214" t="n">
         <v>1.26</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU214" t="n">
         <v>3</v>
@@ -47165,13 +47165,13 @@
         <v>9</v>
       </c>
       <c r="BA214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB214" t="n">
         <v>3</v>
       </c>
       <c r="BC214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD214" t="n">
         <v>1.26</v>
@@ -47359,10 +47359,10 @@
         <v>1.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT215" t="n">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="AU215" t="n">
         <v>9</v>
@@ -48228,10 +48228,10 @@
         <v>1.41</v>
       </c>
       <c r="AR219" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT219" t="n">
         <v>2.6</v>
@@ -48574,7 +48574,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>['30', '57', '80']</t>
+          <t>['29', '57', '80']</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -48885,10 +48885,10 @@
         <v>1.54</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU222" t="n">
         <v>4</v>
@@ -49669,7 +49669,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>['73', '83', '90+2']</t>
+          <t>['73', '82', '90+2']</t>
         </is>
       </c>
       <c r="Q226" t="n">
@@ -49757,10 +49757,10 @@
         <v>2.37</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT226" t="n">
-        <v>3.88</v>
+        <v>3.91</v>
       </c>
       <c r="AU226" t="n">
         <v>7</v>
@@ -49972,40 +49972,40 @@
         <v>0</v>
       </c>
       <c r="AR227" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS227" t="n">
         <v>0.68</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AU227" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW227" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX227" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY227" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ227" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA227" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB227" t="n">
         <v>1</v>
       </c>
       <c r="BC227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD227" t="n">
         <v>1.1</v>
@@ -51283,10 +51283,10 @@
         <v>1.15</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT233" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="AU233" t="n">
         <v>7</v>
@@ -51716,31 +51716,31 @@
         <v>0.71</v>
       </c>
       <c r="AR235" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS235" t="n">
         <v>1.15</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU235" t="n">
         <v>7</v>
       </c>
       <c r="AV235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW235" t="n">
         <v>9</v>
       </c>
       <c r="AX235" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY235" t="n">
         <v>16</v>
       </c>
       <c r="AZ235" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA235" t="n">
         <v>4</v>
@@ -52370,13 +52370,13 @@
         <v>1.59</v>
       </c>
       <c r="AR238" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS238" t="n">
         <v>1.27</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU238" t="n">
         <v>3</v>
@@ -52809,10 +52809,10 @@
         <v>1.84</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="AU240" t="n">
         <v>8</v>
@@ -53024,13 +53024,13 @@
         <v>1.65</v>
       </c>
       <c r="AR241" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AS241" t="n">
         <v>1.56</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.29</v>
+        <v>2.26</v>
       </c>
       <c r="AU241" t="n">
         <v>3</v>
@@ -53463,10 +53463,10 @@
         <v>1.16</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AT243" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU243" t="n">
         <v>5</v>
@@ -54332,13 +54332,13 @@
         <v>1.29</v>
       </c>
       <c r="AR247" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AS247" t="n">
         <v>1.47</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="AU247" t="n">
         <v>2</v>
@@ -54553,10 +54553,10 @@
         <v>1.12</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AT248" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AU248" t="n">
         <v>5</v>
@@ -54768,13 +54768,13 @@
         <v>1.59</v>
       </c>
       <c r="AR249" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT249" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="AU249" t="n">
         <v>7</v>
@@ -54989,10 +54989,10 @@
         <v>2.34</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AT250" t="n">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="AU250" t="n">
         <v>7</v>
@@ -55425,10 +55425,10 @@
         <v>1.75</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT252" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="AU252" t="n">
         <v>10</v>
@@ -56297,10 +56297,10 @@
         <v>1.15</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT256" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="AU256" t="n">
         <v>6</v>
@@ -56733,10 +56733,10 @@
         <v>1.39</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT258" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="AU258" t="n">
         <v>6</v>
@@ -56948,13 +56948,13 @@
         <v>1.12</v>
       </c>
       <c r="AR259" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AS259" t="n">
         <v>1.44</v>
       </c>
       <c r="AT259" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU259" t="n">
         <v>2</v>
@@ -57166,13 +57166,13 @@
         <v>1.82</v>
       </c>
       <c r="AR260" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT260" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AU260" t="n">
         <v>4</v>
@@ -57384,13 +57384,13 @@
         <v>1.65</v>
       </c>
       <c r="AR261" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS261" t="n">
         <v>1.71</v>
       </c>
       <c r="AT261" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="AU261" t="n">
         <v>0</v>
@@ -57605,10 +57605,10 @@
         <v>1.06</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AT262" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="AU262" t="n">
         <v>6</v>
@@ -58171,7 +58171,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>['32', '43', '56', '69']</t>
+          <t>['32', '43', '55', '69']</t>
         </is>
       </c>
       <c r="Q265" t="n">
@@ -58256,13 +58256,13 @@
         <v>1.76</v>
       </c>
       <c r="AR265" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="AS265" t="n">
         <v>1.59</v>
       </c>
       <c r="AT265" t="n">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AU265" t="n">
         <v>0</v>
@@ -58695,10 +58695,10 @@
         <v>1.11</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT267" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU267" t="n">
         <v>6</v>
@@ -59240,10 +59240,10 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L270" t="n">
         <v>1</v>
@@ -59256,12 +59256,12 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['35']</t>
         </is>
       </c>
       <c r="Q270" t="n">
@@ -59349,10 +59349,10 @@
         <v>1.4</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT270" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="AU270" t="n">
         <v>4</v>
@@ -59785,10 +59785,10 @@
         <v>1.17</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AT272" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="AU272" t="n">
         <v>-1</v>
@@ -60221,10 +60221,10 @@
         <v>1.81</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT274" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="AU274" t="n">
         <v>14</v>
@@ -60439,10 +60439,10 @@
         <v>1.08</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AT275" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AU275" t="n">
         <v>4</v>
@@ -60657,10 +60657,10 @@
         <v>1.64</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AT276" t="n">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="AU276" t="n">
         <v>7</v>
@@ -61308,10 +61308,10 @@
         <v>0.82</v>
       </c>
       <c r="AR279" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT279" t="n">
         <v>2.06</v>
@@ -61436,7 +61436,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>['18', '18', '23', '49', '53', '70', '73', '76']</t>
+          <t>['18', '19', '24', '49', '53', '70', '73', '76']</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -61529,10 +61529,10 @@
         <v>1.95</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT280" t="n">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="AU280" t="n">
         <v>10</v>
@@ -61965,10 +61965,10 @@
         <v>1.66</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT282" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="AU282" t="n">
         <v>4</v>
@@ -62180,13 +62180,13 @@
         <v>0.82</v>
       </c>
       <c r="AR283" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT283" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="AU283" t="n">
         <v>-1</v>
@@ -62401,10 +62401,10 @@
         <v>1.61</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AT284" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU284" t="n">
         <v>-1</v>
@@ -62619,28 +62619,28 @@
         <v>1.07</v>
       </c>
       <c r="AS285" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AU285" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV285" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW285" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX285" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY285" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ285" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA285" t="n">
         <v>6</v>
@@ -62725,13 +62725,13 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L286" t="n">
         <v>1</v>
@@ -62744,12 +62744,12 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>['32', '34', '42']</t>
         </is>
       </c>
       <c r="Q286" t="n">
@@ -62946,10 +62946,10 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L287" t="n">
         <v>0</v>
@@ -62967,7 +62967,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>['27', '50', '87']</t>
         </is>
       </c>
       <c r="Q287" t="n">
@@ -63488,13 +63488,13 @@
         <v>1.88</v>
       </c>
       <c r="AR289" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AS289" t="n">
         <v>2.1</v>
       </c>
       <c r="AT289" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="AU289" t="n">
         <v>6</v>
@@ -63597,13 +63597,13 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L290" t="n">
         <v>1</v>
@@ -63616,12 +63616,12 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1']</t>
+          <t>['9', '56', '61', '78']</t>
         </is>
       </c>
       <c r="Q290" t="n">
@@ -63709,10 +63709,10 @@
         <v>1.15</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT290" t="n">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AU290" t="n">
         <v>4</v>
@@ -64363,10 +64363,10 @@
         <v>1.07</v>
       </c>
       <c r="AS293" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AU293" t="n">
         <v>3</v>
@@ -64581,10 +64581,10 @@
         <v>1.81</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AT294" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AU294" t="n">
         <v>12</v>
@@ -64796,13 +64796,13 @@
         <v>1.47</v>
       </c>
       <c r="AR295" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AS295" t="n">
         <v>1.14</v>
       </c>
       <c r="AT295" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU295" t="n">
         <v>3</v>
@@ -65668,13 +65668,13 @@
         <v>1.59</v>
       </c>
       <c r="AR299" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT299" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="AU299" t="n">
         <v>2</v>
@@ -65886,13 +65886,13 @@
         <v>0.82</v>
       </c>
       <c r="AR300" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT300" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="AU300" t="n">
         <v>8</v>
@@ -66237,7 +66237,7 @@
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>['14', '30', '40', '43']</t>
+          <t>['14', '30', '39', '43']</t>
         </is>
       </c>
       <c r="Q302" t="n">
@@ -66322,13 +66322,13 @@
         <v>1.59</v>
       </c>
       <c r="AR302" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AS302" t="n">
         <v>1.25</v>
       </c>
       <c r="AT302" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="AU302" t="n">
         <v>6</v>
@@ -66543,10 +66543,10 @@
         <v>1.61</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AT303" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU303" t="n">
         <v>10</v>
@@ -66567,13 +66567,13 @@
         <v>8</v>
       </c>
       <c r="BA303" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB303" t="n">
         <v>1</v>
       </c>
       <c r="BC303" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD303" t="n">
         <v>1.11</v>
@@ -66668,7 +66668,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['3', '28', '43', '4501']</t>
+          <t>['2', '28', '42', '45+1']</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -66758,10 +66758,10 @@
         <v>1.41</v>
       </c>
       <c r="AR304" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT304" t="n">
         <v>2.85</v>
@@ -66979,10 +66979,10 @@
         <v>1.64</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT305" t="n">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="AU305" t="n">
         <v>2</v>
@@ -67415,10 +67415,10 @@
         <v>2.25</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AT307" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="AU307" t="n">
         <v>-1</v>
